--- a/tests/resources/repo_yss_campaign_report_costs.xlsx
+++ b/tests/resources/repo_yss_campaign_report_costs.xlsx
@@ -161,97 +161,97 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>175,061</t>
+          <t>183,110</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>174,520</t>
+          <t>181,343</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>721,408</t>
+          <t>727,949</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>1,522,107</t>
+          <t>1,566,045</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>609,056.06</t>
+          <t>647,341.01</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>21,531.95</t>
+          <t>21,661.35</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>20,681.67</t>
+          <t>21,121.60</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>20,690.27</t>
+          <t>20,840.43</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>20,888.01</t>
+          <t>20,628.40</t>
         </is>
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>21,690.07</t>
+          <t>21,198.13</t>
         </is>
       </c>
       <c r="L2" s="0" t="inlineStr">
         <is>
-          <t>21,843.91</t>
+          <t>22,004.12</t>
         </is>
       </c>
       <c r="M2" s="0" t="inlineStr">
         <is>
-          <t>21,805.66</t>
+          <t>21,901.43</t>
         </is>
       </c>
       <c r="N2" s="0" t="inlineStr">
         <is>
-          <t>19,908.15</t>
+          <t>20,097.91</t>
         </is>
       </c>
       <c r="O2" s="0" t="inlineStr">
         <is>
-          <t>21,285.80</t>
+          <t>21,270.64</t>
         </is>
       </c>
       <c r="P2" s="0" t="inlineStr">
         <is>
-          <t>20,671.02</t>
+          <t>20,811.48</t>
         </is>
       </c>
       <c r="Q2" s="0" t="inlineStr">
         <is>
-          <t>20,873.72</t>
+          <t>21,161.32</t>
         </is>
       </c>
       <c r="R2" s="0" t="inlineStr">
         <is>
-          <t>19,636.62</t>
+          <t>19,472.17</t>
         </is>
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>21,170.94</t>
+          <t>21,436.27</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
         <is>
-          <t>21,537.23</t>
+          <t>21,237.51</t>
         </is>
       </c>
     </row>
@@ -263,97 +263,97 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>126,963</t>
+          <t>127,042</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>125,311</t>
+          <t>125,723</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>514,859</t>
+          <t>518,365</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>998,381</t>
+          <t>1,035,530</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>420,213.65</t>
+          <t>434,046.94</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>20,873.88</t>
+          <t>20,897.64</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>22,012.33</t>
+          <t>21,663.78</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>20,909.32</t>
+          <t>20,365.61</t>
         </is>
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>22,230.79</t>
+          <t>21,818.38</t>
         </is>
       </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>20,662.00</t>
+          <t>20,887.27</t>
         </is>
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>19,903.30</t>
+          <t>19,657.07</t>
         </is>
       </c>
       <c r="M3" s="0" t="inlineStr">
         <is>
-          <t>21,207.22</t>
+          <t>20,381.81</t>
         </is>
       </c>
       <c r="N3" s="0" t="inlineStr">
         <is>
-          <t>20,435.00</t>
+          <t>20,288.23</t>
         </is>
       </c>
       <c r="O3" s="0" t="inlineStr">
         <is>
-          <t>20,892.99</t>
+          <t>20,691.89</t>
         </is>
       </c>
       <c r="P3" s="0" t="inlineStr">
         <is>
-          <t>20,613.41</t>
+          <t>20,544.07</t>
         </is>
       </c>
       <c r="Q3" s="0" t="inlineStr">
         <is>
-          <t>20,660.50</t>
+          <t>20,256.46</t>
         </is>
       </c>
       <c r="R3" s="0" t="inlineStr">
         <is>
-          <t>20,912.06</t>
+          <t>21,143.79</t>
         </is>
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>20,468.70</t>
+          <t>20,492.72</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
         <is>
-          <t>22,015.00</t>
+          <t>22,429.87</t>
         </is>
       </c>
     </row>
@@ -365,97 +365,97 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>79,214</t>
+          <t>81,049</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>80,377</t>
+          <t>80,485</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>333,252</t>
+          <t>335,886</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>739,024</t>
+          <t>764,606</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>294,710.85</t>
+          <t>302,491.91</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>20,820.78</t>
+          <t>20,801.48</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>20,618.78</t>
+          <t>21,045.98</t>
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>22,005.93</t>
+          <t>22,599.77</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>19,574.74</t>
+          <t>20,165.47</t>
         </is>
       </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>22,352.24</t>
+          <t>23,002.65</t>
         </is>
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>20,734.84</t>
+          <t>20,325.87</t>
         </is>
       </c>
       <c r="M4" s="0" t="inlineStr">
         <is>
-          <t>19,521.22</t>
+          <t>18,893.04</t>
         </is>
       </c>
       <c r="N4" s="0" t="inlineStr">
         <is>
-          <t>19,769.28</t>
+          <t>20,049.99</t>
         </is>
       </c>
       <c r="O4" s="0" t="inlineStr">
         <is>
-          <t>19,950.97</t>
+          <t>19,731.89</t>
         </is>
       </c>
       <c r="P4" s="0" t="inlineStr">
         <is>
-          <t>21,498.34</t>
+          <t>21,613.65</t>
         </is>
       </c>
       <c r="Q4" s="0" t="inlineStr">
         <is>
-          <t>21,819.90</t>
+          <t>21,476.90</t>
         </is>
       </c>
       <c r="R4" s="0" t="inlineStr">
         <is>
-          <t>20,457.35</t>
+          <t>20,742.52</t>
         </is>
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>20,632.79</t>
+          <t>21,159.52</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
         <is>
-          <t>20,896.27</t>
+          <t>21,082.72</t>
         </is>
       </c>
     </row>
@@ -467,97 +467,97 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>802,999</t>
+          <t>788,771</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>809,806</t>
+          <t>795,568</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>3,165,996</t>
+          <t>3,159,346</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>7,058,290</t>
+          <t>7,053,012</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>2,685,056.70</t>
+          <t>2,644,364.60</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>20,880.22</t>
+          <t>20,705.21</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>21,009.35</t>
+          <t>21,167.81</t>
         </is>
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>20,223.76</t>
+          <t>20,641.25</t>
         </is>
       </c>
       <c r="J5" s="0" t="inlineStr">
         <is>
-          <t>21,285.20</t>
+          <t>21,109.91</t>
         </is>
       </c>
       <c r="K5" s="0" t="inlineStr">
         <is>
-          <t>20,753.27</t>
+          <t>20,997.87</t>
         </is>
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>20,563.74</t>
+          <t>20,758.22</t>
         </is>
       </c>
       <c r="M5" s="0" t="inlineStr">
         <is>
-          <t>20,128.83</t>
+          <t>20,210.47</t>
         </is>
       </c>
       <c r="N5" s="0" t="inlineStr">
         <is>
-          <t>20,415.23</t>
+          <t>20,429.84</t>
         </is>
       </c>
       <c r="O5" s="0" t="inlineStr">
         <is>
-          <t>20,779.09</t>
+          <t>20,709.12</t>
         </is>
       </c>
       <c r="P5" s="0" t="inlineStr">
         <is>
-          <t>20,208.85</t>
+          <t>20,221.34</t>
         </is>
       </c>
       <c r="Q5" s="0" t="inlineStr">
         <is>
-          <t>21,103.35</t>
+          <t>21,194.81</t>
         </is>
       </c>
       <c r="R5" s="0" t="inlineStr">
         <is>
-          <t>20,304.34</t>
+          <t>20,216.94</t>
         </is>
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>20,847.05</t>
+          <t>20,894.03</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
         <is>
-          <t>20,967.12</t>
+          <t>20,938.88</t>
         </is>
       </c>
     </row>
@@ -569,97 +569,97 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>758,964</t>
+          <t>758,381</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>746,594</t>
+          <t>748,986</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>3,088,221</t>
+          <t>3,105,757</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>6,568,947</t>
+          <t>6,634,130</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>2,567,529.62</t>
+          <t>2,593,034.99</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>20,735.56</t>
+          <t>20,736.53</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>20,744.84</t>
+          <t>20,631.32</t>
         </is>
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>21,325.76</t>
+          <t>21,104.08</t>
         </is>
       </c>
       <c r="J6" s="0" t="inlineStr">
         <is>
-          <t>20,651.78</t>
+          <t>20,626.40</t>
         </is>
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>20,708.44</t>
+          <t>20,593.85</t>
         </is>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>20,843.54</t>
+          <t>20,955.11</t>
         </is>
       </c>
       <c r="M6" s="0" t="inlineStr">
         <is>
-          <t>21,721.16</t>
+          <t>21,572.66</t>
         </is>
       </c>
       <c r="N6" s="0" t="inlineStr">
         <is>
-          <t>21,156.02</t>
+          <t>21,258.15</t>
         </is>
       </c>
       <c r="O6" s="0" t="inlineStr">
         <is>
-          <t>20,546.54</t>
+          <t>20,544.92</t>
         </is>
       </c>
       <c r="P6" s="0" t="inlineStr">
         <is>
-          <t>20,458.32</t>
+          <t>20,651.42</t>
         </is>
       </c>
       <c r="Q6" s="0" t="inlineStr">
         <is>
-          <t>21,161.27</t>
+          <t>21,155.82</t>
         </is>
       </c>
       <c r="R6" s="0" t="inlineStr">
         <is>
-          <t>20,848.65</t>
+          <t>20,757.67</t>
         </is>
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>20,703.12</t>
+          <t>20,540.24</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
         <is>
-          <t>20,610.01</t>
+          <t>20,432.83</t>
         </is>
       </c>
     </row>
@@ -671,97 +671,97 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>708,160</t>
+          <t>713,307</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>718,748</t>
+          <t>729,077</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>2,819,814</t>
+          <t>2,892,875</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>6,245,112</t>
+          <t>6,326,689</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>2,430,092.33</t>
+          <t>2,413,624.71</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>21,003.31</t>
+          <t>21,236.21</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>20,550.02</t>
+          <t>20,534.31</t>
         </is>
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>20,752.96</t>
+          <t>20,889.69</t>
         </is>
       </c>
       <c r="J7" s="0" t="inlineStr">
         <is>
-          <t>21,577.20</t>
+          <t>21,608.26</t>
         </is>
       </c>
       <c r="K7" s="0" t="inlineStr">
         <is>
-          <t>21,227.36</t>
+          <t>21,220.12</t>
         </is>
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>21,027.80</t>
+          <t>20,855.13</t>
         </is>
       </c>
       <c r="M7" s="0" t="inlineStr">
         <is>
-          <t>21,089.13</t>
+          <t>20,858.25</t>
         </is>
       </c>
       <c r="N7" s="0" t="inlineStr">
         <is>
-          <t>20,665.18</t>
+          <t>20,808.23</t>
         </is>
       </c>
       <c r="O7" s="0" t="inlineStr">
         <is>
-          <t>20,713.16</t>
+          <t>20,690.45</t>
         </is>
       </c>
       <c r="P7" s="0" t="inlineStr">
         <is>
-          <t>20,570.43</t>
+          <t>20,734.35</t>
         </is>
       </c>
       <c r="Q7" s="0" t="inlineStr">
         <is>
-          <t>20,575.31</t>
+          <t>20,666.33</t>
         </is>
       </c>
       <c r="R7" s="0" t="inlineStr">
         <is>
-          <t>20,972.19</t>
+          <t>20,927.20</t>
         </is>
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>20,431.35</t>
+          <t>20,758.50</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
         <is>
-          <t>20,819.89</t>
+          <t>20,771.99</t>
         </is>
       </c>
     </row>
@@ -773,97 +773,97 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>645,693</t>
+          <t>655,616</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>638,065</t>
+          <t>651,142</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>2,514,066</t>
+          <t>2,572,010</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>5,713,370</t>
+          <t>5,840,779</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>2,158,711.98</t>
+          <t>2,184,201.81</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>20,545.33</t>
+          <t>20,584.01</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>21,051.51</t>
+          <t>20,881.28</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>20,494.88</t>
+          <t>20,692.35</t>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>20,900.95</t>
+          <t>20,905.70</t>
         </is>
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>20,915.01</t>
+          <t>20,820.78</t>
         </is>
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>21,305.31</t>
+          <t>21,233.85</t>
         </is>
       </c>
       <c r="M8" s="0" t="inlineStr">
         <is>
-          <t>20,824.02</t>
+          <t>20,723.68</t>
         </is>
       </c>
       <c r="N8" s="0" t="inlineStr">
         <is>
-          <t>21,040.25</t>
+          <t>21,096.63</t>
         </is>
       </c>
       <c r="O8" s="0" t="inlineStr">
         <is>
-          <t>21,200.72</t>
+          <t>21,017.04</t>
         </is>
       </c>
       <c r="P8" s="0" t="inlineStr">
         <is>
-          <t>21,230.45</t>
+          <t>21,189.16</t>
         </is>
       </c>
       <c r="Q8" s="0" t="inlineStr">
         <is>
-          <t>21,050.49</t>
+          <t>21,069.44</t>
         </is>
       </c>
       <c r="R8" s="0" t="inlineStr">
         <is>
-          <t>20,570.86</t>
+          <t>20,480.68</t>
         </is>
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>20,673.70</t>
+          <t>20,762.69</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
         <is>
-          <t>20,219.76</t>
+          <t>20,238.51</t>
         </is>
       </c>
     </row>
@@ -875,97 +875,97 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>572,522</t>
+          <t>570,501</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>589,452</t>
+          <t>593,573</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>2,346,480</t>
+          <t>2,364,419</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>5,076,305</t>
+          <t>5,101,731</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>1,997,141.90</t>
+          <t>2,003,887.10</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>20,850.34</t>
+          <t>20,948.45</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>20,890.49</t>
+          <t>21,132.68</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>20,702.19</t>
+          <t>20,707.55</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>20,540.21</t>
+          <t>20,626.78</t>
         </is>
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>21,459.76</t>
+          <t>21,274.78</t>
         </is>
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>20,478.62</t>
+          <t>20,764.00</t>
         </is>
       </c>
       <c r="M9" s="0" t="inlineStr">
         <is>
-          <t>21,049.75</t>
+          <t>20,866.78</t>
         </is>
       </c>
       <c r="N9" s="0" t="inlineStr">
         <is>
-          <t>20,495.71</t>
+          <t>20,368.60</t>
         </is>
       </c>
       <c r="O9" s="0" t="inlineStr">
         <is>
-          <t>20,831.82</t>
+          <t>20,695.34</t>
         </is>
       </c>
       <c r="P9" s="0" t="inlineStr">
         <is>
-          <t>20,608.78</t>
+          <t>20,455.81</t>
         </is>
       </c>
       <c r="Q9" s="0" t="inlineStr">
         <is>
-          <t>20,789.71</t>
+          <t>20,916.01</t>
         </is>
       </c>
       <c r="R9" s="0" t="inlineStr">
         <is>
-          <t>20,764.22</t>
+          <t>20,435.11</t>
         </is>
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>20,440.66</t>
+          <t>20,456.93</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
         <is>
-          <t>21,536.80</t>
+          <t>21,147.21</t>
         </is>
       </c>
     </row>
@@ -977,97 +977,97 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>541,427</t>
+          <t>543,493</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>538,675</t>
+          <t>543,818</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>2,196,539</t>
+          <t>2,180,682</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>4,774,963</t>
+          <t>4,859,016</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>1,785,881.30</t>
+          <t>1,781,017.28</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>20,888.21</t>
+          <t>20,936.01</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>20,916.75</t>
+          <t>21,116.03</t>
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>21,086.02</t>
+          <t>21,189.33</t>
         </is>
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>21,130.52</t>
+          <t>20,810.83</t>
         </is>
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>20,328.34</t>
+          <t>20,525.33</t>
         </is>
       </c>
       <c r="L10" s="0" t="inlineStr">
         <is>
-          <t>20,659.65</t>
+          <t>20,471.79</t>
         </is>
       </c>
       <c r="M10" s="0" t="inlineStr">
         <is>
-          <t>21,350.58</t>
+          <t>21,502.16</t>
         </is>
       </c>
       <c r="N10" s="0" t="inlineStr">
         <is>
-          <t>20,719.07</t>
+          <t>20,806.92</t>
         </is>
       </c>
       <c r="O10" s="0" t="inlineStr">
         <is>
-          <t>20,930.89</t>
+          <t>20,804.83</t>
         </is>
       </c>
       <c r="P10" s="0" t="inlineStr">
         <is>
-          <t>21,156.72</t>
+          <t>21,243.74</t>
         </is>
       </c>
       <c r="Q10" s="0" t="inlineStr">
         <is>
-          <t>20,777.70</t>
+          <t>20,762.55</t>
         </is>
       </c>
       <c r="R10" s="0" t="inlineStr">
         <is>
-          <t>20,887.19</t>
+          <t>20,800.41</t>
         </is>
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>20,780.03</t>
+          <t>20,785.54</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
         <is>
-          <t>20,379.80</t>
+          <t>20,253.15</t>
         </is>
       </c>
     </row>
@@ -1079,97 +1079,97 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>472,453</t>
+          <t>485,258</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>469,463</t>
+          <t>486,766</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>1,901,491</t>
+          <t>1,974,852</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>4,053,335</t>
+          <t>4,162,578</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>1,529,831.32</t>
+          <t>1,571,330.22</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>21,391.82</t>
+          <t>21,228.10</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>20,555.24</t>
+          <t>20,463.21</t>
         </is>
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>20,944.53</t>
+          <t>20,990.79</t>
         </is>
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>20,616.66</t>
+          <t>20,377.61</t>
         </is>
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>20,834.68</t>
+          <t>21,145.42</t>
         </is>
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>21,185.30</t>
+          <t>21,084.60</t>
         </is>
       </c>
       <c r="M11" s="0" t="inlineStr">
         <is>
-          <t>21,046.59</t>
+          <t>20,949.71</t>
         </is>
       </c>
       <c r="N11" s="0" t="inlineStr">
         <is>
-          <t>20,464.26</t>
+          <t>20,484.82</t>
         </is>
       </c>
       <c r="O11" s="0" t="inlineStr">
         <is>
-          <t>20,580.39</t>
+          <t>20,547.35</t>
         </is>
       </c>
       <c r="P11" s="0" t="inlineStr">
         <is>
-          <t>21,216.06</t>
+          <t>20,966.38</t>
         </is>
       </c>
       <c r="Q11" s="0" t="inlineStr">
         <is>
-          <t>20,498.21</t>
+          <t>20,678.42</t>
         </is>
       </c>
       <c r="R11" s="0" t="inlineStr">
         <is>
-          <t>21,130.57</t>
+          <t>21,065.25</t>
         </is>
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>20,546.76</t>
+          <t>20,410.98</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
         <is>
-          <t>21,105.48</t>
+          <t>21,168.21</t>
         </is>
       </c>
     </row>
@@ -1181,97 +1181,97 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>357,399</t>
+          <t>344,338</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>342,441</t>
+          <t>335,440</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>1,446,420</t>
+          <t>1,418,817</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>3,166,287</t>
+          <t>3,141,935</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>1,242,589.56</t>
+          <t>1,186,619.46</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>21,181.81</t>
+          <t>21,330.63</t>
         </is>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>20,587.31</t>
+          <t>20,489.43</t>
         </is>
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>21,354.29</t>
+          <t>21,336.54</t>
         </is>
       </c>
       <c r="J12" s="0" t="inlineStr">
         <is>
-          <t>20,513.49</t>
+          <t>20,623.82</t>
         </is>
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>19,924.01</t>
+          <t>19,952.28</t>
         </is>
       </c>
       <c r="L12" s="0" t="inlineStr">
         <is>
-          <t>20,544.92</t>
+          <t>20,962.21</t>
         </is>
       </c>
       <c r="M12" s="0" t="inlineStr">
         <is>
-          <t>21,310.78</t>
+          <t>21,109.33</t>
         </is>
       </c>
       <c r="N12" s="0" t="inlineStr">
         <is>
-          <t>22,002.70</t>
+          <t>22,017.89</t>
         </is>
       </c>
       <c r="O12" s="0" t="inlineStr">
         <is>
-          <t>20,991.49</t>
+          <t>21,103.41</t>
         </is>
       </c>
       <c r="P12" s="0" t="inlineStr">
         <is>
-          <t>20,444.80</t>
+          <t>20,305.80</t>
         </is>
       </c>
       <c r="Q12" s="0" t="inlineStr">
         <is>
-          <t>20,717.46</t>
+          <t>21,161.43</t>
         </is>
       </c>
       <c r="R12" s="0" t="inlineStr">
         <is>
-          <t>21,306.19</t>
+          <t>21,115.58</t>
         </is>
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>20,953.54</t>
+          <t>20,740.84</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
         <is>
-          <t>20,610.49</t>
+          <t>20,565.93</t>
         </is>
       </c>
     </row>
@@ -1283,97 +1283,97 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>303,419</t>
+          <t>309,804</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>289,266</t>
+          <t>289,885</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>1,198,232</t>
+          <t>1,225,431</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>2,672,000</t>
+          <t>2,716,834</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>999,610.24</t>
+          <t>1,012,076.15</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>20,572.11</t>
+          <t>20,604.04</t>
         </is>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>21,590.88</t>
+          <t>21,515.71</t>
         </is>
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>20,499.67</t>
+          <t>20,272.04</t>
         </is>
       </c>
       <c r="J13" s="0" t="inlineStr">
         <is>
-          <t>20,041.37</t>
+          <t>20,312.37</t>
         </is>
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>20,932.37</t>
+          <t>20,982.11</t>
         </is>
       </c>
       <c r="L13" s="0" t="inlineStr">
         <is>
-          <t>21,905.68</t>
+          <t>21,984.64</t>
         </is>
       </c>
       <c r="M13" s="0" t="inlineStr">
         <is>
-          <t>20,793.63</t>
+          <t>20,960.67</t>
         </is>
       </c>
       <c r="N13" s="0" t="inlineStr">
         <is>
-          <t>21,111.00</t>
+          <t>21,090.14</t>
         </is>
       </c>
       <c r="O13" s="0" t="inlineStr">
         <is>
-          <t>20,547.47</t>
+          <t>20,525.89</t>
         </is>
       </c>
       <c r="P13" s="0" t="inlineStr">
         <is>
-          <t>20,418.75</t>
+          <t>20,376.15</t>
         </is>
       </c>
       <c r="Q13" s="0" t="inlineStr">
         <is>
-          <t>21,222.19</t>
+          <t>21,231.40</t>
         </is>
       </c>
       <c r="R13" s="0" t="inlineStr">
         <is>
-          <t>20,250.59</t>
+          <t>20,132.87</t>
         </is>
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>22,451.95</t>
+          <t>22,601.32</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
         <is>
-          <t>21,615.07</t>
+          <t>21,888.86</t>
         </is>
       </c>
     </row>
@@ -1385,97 +1385,97 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>255,847</t>
+          <t>262,208</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>263,672</t>
+          <t>267,073</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>1,088,177</t>
+          <t>1,100,206</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>2,355,480</t>
+          <t>2,354,271</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>878,247.15</t>
+          <t>889,721.38</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>20,570.46</t>
+          <t>20,646.37</t>
         </is>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>20,914.96</t>
+          <t>21,248.81</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>21,148.85</t>
+          <t>20,875.92</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t>21,208.63</t>
+          <t>20,988.23</t>
         </is>
       </c>
       <c r="K14" s="0" t="inlineStr">
         <is>
-          <t>21,482.76</t>
+          <t>21,317.09</t>
         </is>
       </c>
       <c r="L14" s="0" t="inlineStr">
         <is>
-          <t>21,797.64</t>
+          <t>21,390.47</t>
         </is>
       </c>
       <c r="M14" s="0" t="inlineStr">
         <is>
-          <t>21,362.87</t>
+          <t>21,382.69</t>
         </is>
       </c>
       <c r="N14" s="0" t="inlineStr">
         <is>
-          <t>20,630.28</t>
+          <t>21,006.41</t>
         </is>
       </c>
       <c r="O14" s="0" t="inlineStr">
         <is>
-          <t>20,186.42</t>
+          <t>20,125.65</t>
         </is>
       </c>
       <c r="P14" s="0" t="inlineStr">
         <is>
-          <t>21,352.02</t>
+          <t>20,790.45</t>
         </is>
       </c>
       <c r="Q14" s="0" t="inlineStr">
         <is>
-          <t>21,128.38</t>
+          <t>21,536.32</t>
         </is>
       </c>
       <c r="R14" s="0" t="inlineStr">
         <is>
-          <t>20,820.63</t>
+          <t>20,795.00</t>
         </is>
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>21,496.92</t>
+          <t>21,288.56</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
         <is>
-          <t>21,479.77</t>
+          <t>21,415.92</t>
         </is>
       </c>
     </row>
